--- a/enrich/output/breakpoints_gene_info_20220623.xlsx
+++ b/enrich/output/breakpoints_gene_info_20220623.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wendy/Documents/ASY1_manuscript/enrich/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8D074328-B550-884B-89B6-5A9C27F41934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2012B9A1-AE5A-3A4B-866A-9C24CCF01925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1500" windowWidth="31160" windowHeight="16660"/>
   </bookViews>
@@ -1541,7 +1541,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1550,6 +1550,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1907,12 +1913,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C267" sqref="C267"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -1920,7 +1927,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>345</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1955,7 +1962,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1990,7 +1997,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2025,7 +2032,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2060,7 +2067,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2095,7 +2102,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2130,7 +2137,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2165,7 +2172,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2200,7 +2207,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2235,7 +2242,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2270,7 +2277,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2305,7 +2312,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2340,7 +2347,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2375,7 +2382,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2410,7 +2417,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2445,7 +2452,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2480,7 +2487,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2515,7 +2522,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2550,7 +2557,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2585,7 +2592,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2620,7 +2627,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2655,7 +2662,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2690,7 +2697,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2725,7 +2732,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2760,7 +2767,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2795,7 +2802,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2830,7 +2837,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2865,7 +2872,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2900,7 +2907,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2935,7 +2942,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2970,7 +2977,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -3005,7 +3012,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -3040,7 +3047,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -3075,7 +3082,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -3110,7 +3117,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -3145,7 +3152,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -3180,7 +3187,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -3215,7 +3222,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -3250,7 +3257,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -3285,7 +3292,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -3320,7 +3327,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -3355,7 +3362,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -3390,7 +3397,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -3425,7 +3432,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -3460,7 +3467,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -3495,7 +3502,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -3530,7 +3537,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -3565,7 +3572,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -3600,7 +3607,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -3635,7 +3642,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -3670,7 +3677,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -3705,7 +3712,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -3740,7 +3747,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -3775,7 +3782,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -3810,7 +3817,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -3845,7 +3852,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -3880,7 +3887,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -3915,7 +3922,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -3950,7 +3957,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -3985,7 +3992,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -4020,7 +4027,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -4055,7 +4062,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -4090,7 +4097,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -4125,7 +4132,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -4160,7 +4167,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -4195,7 +4202,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -4230,7 +4237,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
@@ -4249,7 +4256,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="4">
         <v>66</v>
       </c>
       <c r="B68" t="s">
@@ -4284,7 +4291,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="4">
         <v>67</v>
       </c>
       <c r="B69" t="s">
@@ -4319,7 +4326,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="4">
         <v>68</v>
       </c>
       <c r="B70" t="s">
@@ -4354,7 +4361,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="4">
         <v>69</v>
       </c>
       <c r="B71" t="s">
@@ -4389,7 +4396,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="4">
         <v>70</v>
       </c>
       <c r="B72" t="s">
@@ -4424,7 +4431,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="4">
         <v>71</v>
       </c>
       <c r="B73" t="s">
@@ -4459,7 +4466,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="4">
         <v>72</v>
       </c>
       <c r="B74" t="s">
@@ -4494,7 +4501,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="A75" s="5">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -4529,7 +4536,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
+      <c r="A76" s="5"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76">
@@ -4548,7 +4555,7 @@
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="4">
         <v>74</v>
       </c>
       <c r="B77" t="s">
@@ -4583,7 +4590,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="4">
         <v>75</v>
       </c>
       <c r="B78" t="s">
@@ -4618,7 +4625,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="4">
         <v>76</v>
       </c>
       <c r="B79" t="s">
@@ -4653,7 +4660,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="4">
         <v>77</v>
       </c>
       <c r="B80" t="s">
@@ -4688,7 +4695,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="4">
         <v>78</v>
       </c>
       <c r="B81" t="s">
@@ -4723,7 +4730,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="4">
         <v>79</v>
       </c>
       <c r="B82" t="s">
@@ -4758,7 +4765,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="4">
         <v>80</v>
       </c>
       <c r="B83" t="s">
@@ -4793,7 +4800,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="4">
         <v>81</v>
       </c>
       <c r="B84" t="s">
@@ -4828,7 +4835,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="4">
         <v>82</v>
       </c>
       <c r="B85" t="s">
@@ -4863,7 +4870,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="4">
         <v>83</v>
       </c>
       <c r="B86" t="s">
@@ -4898,7 +4905,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="4">
         <v>84</v>
       </c>
       <c r="B87" t="s">
@@ -4933,7 +4940,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="4">
         <v>85</v>
       </c>
       <c r="B88" t="s">
@@ -4968,7 +4975,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="4">
         <v>86</v>
       </c>
       <c r="B89" t="s">
@@ -5003,7 +5010,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="4">
         <v>87</v>
       </c>
       <c r="B90" t="s">
@@ -5038,7 +5045,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="4">
         <v>88</v>
       </c>
       <c r="B91" t="s">
@@ -5073,7 +5080,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="A92" s="5">
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -5108,7 +5115,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
+      <c r="A93" s="5"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -5127,7 +5134,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="4">
         <v>90</v>
       </c>
       <c r="B94" t="s">
@@ -5162,7 +5169,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" s="4">
         <v>91</v>
       </c>
       <c r="B95" t="s">
@@ -5197,7 +5204,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" s="4">
         <v>92</v>
       </c>
       <c r="B96" t="s">
@@ -5232,7 +5239,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="4">
         <v>93</v>
       </c>
       <c r="B97" t="s">
@@ -5267,7 +5274,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="4">
         <v>94</v>
       </c>
       <c r="B98" t="s">
@@ -5302,7 +5309,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="4">
         <v>95</v>
       </c>
       <c r="B99" t="s">
@@ -5337,7 +5344,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="A100" s="4">
         <v>96</v>
       </c>
       <c r="B100" t="s">
@@ -5372,7 +5379,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" s="4">
         <v>97</v>
       </c>
       <c r="B101" t="s">
@@ -5407,7 +5414,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" s="4">
         <v>98</v>
       </c>
       <c r="B102" t="s">
@@ -5442,7 +5449,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" s="4">
         <v>99</v>
       </c>
       <c r="B103" t="s">
@@ -5477,7 +5484,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="A104" s="4">
         <v>100</v>
       </c>
       <c r="B104" t="s">
@@ -5512,7 +5519,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" s="4">
         <v>101</v>
       </c>
       <c r="B105" t="s">
@@ -5547,7 +5554,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" s="4">
         <v>102</v>
       </c>
       <c r="B106" t="s">
@@ -5582,7 +5589,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" s="4">
         <v>103</v>
       </c>
       <c r="B107" t="s">
@@ -5617,7 +5624,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="4">
         <v>104</v>
       </c>
       <c r="B108" t="s">
@@ -5652,7 +5659,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" s="4">
         <v>105</v>
       </c>
       <c r="B109" t="s">
@@ -5687,7 +5694,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" s="4">
         <v>106</v>
       </c>
       <c r="B110" t="s">
@@ -5722,7 +5729,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="A111" s="4">
         <v>107</v>
       </c>
       <c r="B111" t="s">
@@ -5757,7 +5764,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" s="4">
         <v>108</v>
       </c>
       <c r="B112" t="s">
@@ -5792,7 +5799,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="A113" s="4">
         <v>109</v>
       </c>
       <c r="B113" t="s">
@@ -5827,7 +5834,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="A114" s="4">
         <v>110</v>
       </c>
       <c r="B114" t="s">
@@ -5862,7 +5869,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="A115" s="4">
         <v>111</v>
       </c>
       <c r="B115" t="s">
@@ -5897,7 +5904,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="A116" s="4">
         <v>112</v>
       </c>
       <c r="B116" t="s">
@@ -5932,7 +5939,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="A117" s="4">
         <v>113</v>
       </c>
       <c r="B117" t="s">
@@ -5967,7 +5974,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="A118" s="4">
         <v>114</v>
       </c>
       <c r="B118" t="s">
@@ -6002,7 +6009,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="A119" s="4">
         <v>115</v>
       </c>
       <c r="B119" t="s">
@@ -6037,7 +6044,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="A120" s="4">
         <v>116</v>
       </c>
       <c r="B120" t="s">
@@ -6072,7 +6079,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="A121" s="4">
         <v>117</v>
       </c>
       <c r="B121" t="s">
@@ -6107,7 +6114,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="A122" s="4">
         <v>118</v>
       </c>
       <c r="B122" t="s">
@@ -6142,7 +6149,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="A123" s="4">
         <v>119</v>
       </c>
       <c r="B123" t="s">
@@ -6177,7 +6184,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="A124" s="4">
         <v>120</v>
       </c>
       <c r="B124" t="s">
@@ -6212,7 +6219,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="A125" s="4">
         <v>121</v>
       </c>
       <c r="B125" t="s">
@@ -6247,7 +6254,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" s="4">
         <v>122</v>
       </c>
       <c r="B126" t="s">
@@ -6282,7 +6289,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="A127" s="4">
         <v>123</v>
       </c>
       <c r="B127" t="s">
@@ -6317,7 +6324,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="A128" s="4">
         <v>124</v>
       </c>
       <c r="B128" t="s">
@@ -6352,7 +6359,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="A129" s="4">
         <v>125</v>
       </c>
       <c r="B129" t="s">
@@ -6387,7 +6394,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="A130" s="4">
         <v>126</v>
       </c>
       <c r="B130" t="s">
@@ -6422,7 +6429,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="A131" s="4">
         <v>127</v>
       </c>
       <c r="B131" t="s">
@@ -6457,7 +6464,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="A132" s="4">
         <v>128</v>
       </c>
       <c r="B132" t="s">
@@ -6492,7 +6499,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="A133" s="4">
         <v>129</v>
       </c>
       <c r="B133" t="s">
@@ -6527,7 +6534,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="A134" s="4">
         <v>130</v>
       </c>
       <c r="B134" t="s">
@@ -6562,7 +6569,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="A135" s="4">
         <v>131</v>
       </c>
       <c r="B135" t="s">
@@ -6597,7 +6604,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="A136" s="4">
         <v>132</v>
       </c>
       <c r="B136" t="s">
@@ -6632,7 +6639,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="A137" s="4">
         <v>133</v>
       </c>
       <c r="B137" t="s">
@@ -6667,7 +6674,7 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="A138" s="4">
         <v>134</v>
       </c>
       <c r="B138" t="s">
@@ -6702,7 +6709,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="A139" s="4">
         <v>135</v>
       </c>
       <c r="B139" t="s">
@@ -6737,7 +6744,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="A140" s="4">
         <v>136</v>
       </c>
       <c r="B140" t="s">
@@ -6772,7 +6779,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="A141" s="4">
         <v>137</v>
       </c>
       <c r="B141" t="s">
@@ -6807,7 +6814,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="A142" s="4">
         <v>138</v>
       </c>
       <c r="B142" t="s">
@@ -6842,7 +6849,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="A143" s="4">
         <v>139</v>
       </c>
       <c r="B143" t="s">
@@ -6877,7 +6884,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="A144" s="4">
         <v>140</v>
       </c>
       <c r="B144" t="s">
@@ -6912,7 +6919,7 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="A145" s="4">
         <v>141</v>
       </c>
       <c r="B145" t="s">
@@ -6947,7 +6954,7 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="A146" s="4">
         <v>142</v>
       </c>
       <c r="B146" t="s">
@@ -6982,7 +6989,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="A147" s="4">
         <v>143</v>
       </c>
       <c r="B147" t="s">
@@ -7017,7 +7024,7 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="A148" s="4">
         <v>144</v>
       </c>
       <c r="B148" t="s">
@@ -7052,7 +7059,7 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="A149" s="4">
         <v>145</v>
       </c>
       <c r="B149" t="s">
@@ -7087,7 +7094,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="A150" s="4">
         <v>146</v>
       </c>
       <c r="B150" t="s">
@@ -7122,7 +7129,7 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="A151" s="4">
         <v>147</v>
       </c>
       <c r="B151" t="s">
@@ -7157,7 +7164,7 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="A152" s="4">
         <v>148</v>
       </c>
       <c r="B152" t="s">
@@ -7192,7 +7199,7 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="A153" s="4">
         <v>149</v>
       </c>
       <c r="B153" t="s">
@@ -7227,7 +7234,7 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="A154" s="4">
         <v>150</v>
       </c>
       <c r="B154" t="s">
@@ -7262,7 +7269,7 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155">
+      <c r="A155" s="4">
         <v>151</v>
       </c>
       <c r="B155" t="s">
@@ -7297,7 +7304,7 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="A156" s="4">
         <v>152</v>
       </c>
       <c r="B156" t="s">
@@ -7332,7 +7339,7 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="A157" s="4">
         <v>153</v>
       </c>
       <c r="B157" t="s">
@@ -7367,7 +7374,7 @@
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="A158" s="4">
         <v>154</v>
       </c>
       <c r="B158" t="s">
@@ -7402,7 +7409,7 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159">
+      <c r="A159" s="4">
         <v>155</v>
       </c>
       <c r="B159" t="s">
@@ -7437,7 +7444,7 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+      <c r="A160" s="5">
         <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -7472,7 +7479,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" s="1"/>
+      <c r="A161" s="5"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
       <c r="D161" s="2"/>
@@ -7491,7 +7498,7 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162">
+      <c r="A162" s="4">
         <v>157</v>
       </c>
       <c r="B162" t="s">
@@ -7526,7 +7533,7 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163">
+      <c r="A163" s="4">
         <v>158</v>
       </c>
       <c r="B163" t="s">
@@ -7561,7 +7568,7 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164">
+      <c r="A164" s="4">
         <v>159</v>
       </c>
       <c r="B164" t="s">
@@ -7596,7 +7603,7 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165">
+      <c r="A165" s="4">
         <v>160</v>
       </c>
       <c r="B165" t="s">
@@ -7631,7 +7638,7 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="A166" s="4">
         <v>161</v>
       </c>
       <c r="B166" t="s">
@@ -7666,7 +7673,7 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="A167" s="4">
         <v>162</v>
       </c>
       <c r="B167" t="s">
@@ -7701,7 +7708,7 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168">
+      <c r="A168" s="4">
         <v>163</v>
       </c>
       <c r="B168" t="s">
@@ -7736,7 +7743,7 @@
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169">
+      <c r="A169" s="4">
         <v>164</v>
       </c>
       <c r="B169" t="s">
@@ -7771,7 +7778,7 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170">
+      <c r="A170" s="4">
         <v>165</v>
       </c>
       <c r="B170" t="s">
@@ -7806,7 +7813,7 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171">
+      <c r="A171" s="4">
         <v>166</v>
       </c>
       <c r="B171" t="s">
@@ -7841,7 +7848,7 @@
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172">
+      <c r="A172" s="4">
         <v>167</v>
       </c>
       <c r="B172" t="s">
@@ -7876,7 +7883,7 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173">
+      <c r="A173" s="4">
         <v>168</v>
       </c>
       <c r="B173" t="s">
@@ -7911,7 +7918,7 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174">
+      <c r="A174" s="4">
         <v>169</v>
       </c>
       <c r="B174" t="s">
@@ -7946,7 +7953,7 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175">
+      <c r="A175" s="4">
         <v>170</v>
       </c>
       <c r="B175" t="s">
@@ -7981,7 +7988,7 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="A176" s="4">
         <v>171</v>
       </c>
       <c r="B176" t="s">
@@ -8016,7 +8023,7 @@
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="A177" s="4">
         <v>172</v>
       </c>
       <c r="B177" t="s">
@@ -8051,7 +8058,7 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178">
+      <c r="A178" s="4">
         <v>173</v>
       </c>
       <c r="B178" t="s">
@@ -8086,7 +8093,7 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179">
+      <c r="A179" s="4">
         <v>174</v>
       </c>
       <c r="B179" t="s">
@@ -8121,7 +8128,7 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180">
+      <c r="A180" s="4">
         <v>175</v>
       </c>
       <c r="B180" t="s">
@@ -8156,7 +8163,7 @@
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181">
+      <c r="A181" s="4">
         <v>176</v>
       </c>
       <c r="B181" t="s">
@@ -8191,7 +8198,7 @@
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182">
+      <c r="A182" s="4">
         <v>177</v>
       </c>
       <c r="B182" t="s">
@@ -8226,7 +8233,7 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="A183" s="4">
         <v>178</v>
       </c>
       <c r="B183" t="s">
@@ -8261,7 +8268,7 @@
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184">
+      <c r="A184" s="4">
         <v>179</v>
       </c>
       <c r="B184" t="s">
@@ -8296,7 +8303,7 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185">
+      <c r="A185" s="4">
         <v>180</v>
       </c>
       <c r="B185" t="s">
@@ -8331,7 +8338,7 @@
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186">
+      <c r="A186" s="4">
         <v>181</v>
       </c>
       <c r="B186" t="s">
@@ -8366,7 +8373,7 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187">
+      <c r="A187" s="4">
         <v>182</v>
       </c>
       <c r="B187" t="s">
@@ -8401,7 +8408,7 @@
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188">
+      <c r="A188" s="4">
         <v>183</v>
       </c>
       <c r="B188" t="s">
@@ -8436,7 +8443,7 @@
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189">
+      <c r="A189" s="4">
         <v>184</v>
       </c>
       <c r="B189" t="s">
@@ -8471,7 +8478,7 @@
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190">
+      <c r="A190" s="4">
         <v>185</v>
       </c>
       <c r="B190" t="s">
@@ -8506,7 +8513,7 @@
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191">
+      <c r="A191" s="4">
         <v>186</v>
       </c>
       <c r="B191" t="s">
@@ -8541,7 +8548,7 @@
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192">
+      <c r="A192" s="4">
         <v>187</v>
       </c>
       <c r="B192" t="s">
@@ -8576,7 +8583,7 @@
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193">
+      <c r="A193" s="4">
         <v>188</v>
       </c>
       <c r="B193" t="s">
@@ -8611,7 +8618,7 @@
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194">
+      <c r="A194" s="4">
         <v>189</v>
       </c>
       <c r="B194" t="s">
@@ -8646,7 +8653,7 @@
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195">
+      <c r="A195" s="4">
         <v>190</v>
       </c>
       <c r="B195" t="s">
@@ -8681,7 +8688,7 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A196">
+      <c r="A196" s="4">
         <v>191</v>
       </c>
       <c r="B196" t="s">
@@ -8716,7 +8723,7 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A197">
+      <c r="A197" s="4">
         <v>192</v>
       </c>
       <c r="B197" t="s">
@@ -8751,7 +8758,7 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198">
+      <c r="A198" s="4">
         <v>193</v>
       </c>
       <c r="B198" t="s">
@@ -8786,7 +8793,7 @@
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199">
+      <c r="A199" s="4">
         <v>194</v>
       </c>
       <c r="B199" t="s">
@@ -8821,7 +8828,7 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200">
+      <c r="A200" s="4">
         <v>195</v>
       </c>
       <c r="B200" t="s">
@@ -8856,7 +8863,7 @@
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201">
+      <c r="A201" s="4">
         <v>196</v>
       </c>
       <c r="B201" t="s">
@@ -8891,7 +8898,7 @@
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202">
+      <c r="A202" s="4">
         <v>197</v>
       </c>
       <c r="B202" t="s">
@@ -8926,7 +8933,7 @@
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203">
+      <c r="A203" s="4">
         <v>198</v>
       </c>
       <c r="B203" t="s">
@@ -8961,7 +8968,7 @@
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204">
+      <c r="A204" s="4">
         <v>199</v>
       </c>
       <c r="B204" t="s">
@@ -8996,7 +9003,7 @@
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205">
+      <c r="A205" s="4">
         <v>200</v>
       </c>
       <c r="B205" t="s">
@@ -9031,7 +9038,7 @@
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A206">
+      <c r="A206" s="4">
         <v>201</v>
       </c>
       <c r="B206" t="s">
@@ -9066,7 +9073,7 @@
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A207">
+      <c r="A207" s="4">
         <v>202</v>
       </c>
       <c r="B207" t="s">
@@ -9101,7 +9108,7 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208">
+      <c r="A208" s="4">
         <v>203</v>
       </c>
       <c r="B208" t="s">
@@ -9136,7 +9143,7 @@
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209">
+      <c r="A209" s="4">
         <v>204</v>
       </c>
       <c r="B209" t="s">
@@ -9171,7 +9178,7 @@
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210">
+      <c r="A210" s="4">
         <v>205</v>
       </c>
       <c r="B210" t="s">
@@ -9206,7 +9213,7 @@
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211">
+      <c r="A211" s="4">
         <v>206</v>
       </c>
       <c r="B211" t="s">
@@ -9241,7 +9248,7 @@
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212">
+      <c r="A212" s="4">
         <v>207</v>
       </c>
       <c r="B212" t="s">
@@ -9276,7 +9283,7 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213">
+      <c r="A213" s="4">
         <v>208</v>
       </c>
       <c r="B213" t="s">
@@ -9311,7 +9318,7 @@
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214">
+      <c r="A214" s="4">
         <v>209</v>
       </c>
       <c r="B214" t="s">
@@ -9346,7 +9353,7 @@
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215">
+      <c r="A215" s="4">
         <v>210</v>
       </c>
       <c r="B215" t="s">
@@ -9381,7 +9388,7 @@
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216">
+      <c r="A216" s="4">
         <v>211</v>
       </c>
       <c r="B216" t="s">
@@ -9416,7 +9423,7 @@
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217">
+      <c r="A217" s="4">
         <v>212</v>
       </c>
       <c r="B217" t="s">
@@ -9451,7 +9458,7 @@
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218">
+      <c r="A218" s="4">
         <v>213</v>
       </c>
       <c r="B218" t="s">
@@ -9486,7 +9493,7 @@
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219">
+      <c r="A219" s="4">
         <v>214</v>
       </c>
       <c r="B219" t="s">
@@ -9521,7 +9528,7 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220">
+      <c r="A220" s="4">
         <v>215</v>
       </c>
       <c r="B220" t="s">
@@ -9556,7 +9563,7 @@
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221">
+      <c r="A221" s="4">
         <v>216</v>
       </c>
       <c r="B221" t="s">
@@ -9591,7 +9598,7 @@
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222">
+      <c r="A222" s="4">
         <v>217</v>
       </c>
       <c r="B222" t="s">
@@ -9626,7 +9633,7 @@
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223">
+      <c r="A223" s="4">
         <v>218</v>
       </c>
       <c r="B223" t="s">
@@ -9661,7 +9668,7 @@
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224">
+      <c r="A224" s="4">
         <v>219</v>
       </c>
       <c r="B224" t="s">
@@ -9696,7 +9703,7 @@
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A225">
+      <c r="A225" s="4">
         <v>220</v>
       </c>
       <c r="B225" t="s">
@@ -9731,7 +9738,7 @@
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A226">
+      <c r="A226" s="4">
         <v>221</v>
       </c>
       <c r="B226" t="s">
@@ -9766,7 +9773,7 @@
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A227">
+      <c r="A227" s="4">
         <v>222</v>
       </c>
       <c r="B227" t="s">
@@ -9801,7 +9808,7 @@
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228">
+      <c r="A228" s="4">
         <v>223</v>
       </c>
       <c r="B228" t="s">
@@ -9836,7 +9843,7 @@
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229">
+      <c r="A229" s="4">
         <v>224</v>
       </c>
       <c r="B229" t="s">
@@ -9871,7 +9878,7 @@
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230">
+      <c r="A230" s="4">
         <v>225</v>
       </c>
       <c r="B230" t="s">
@@ -9906,7 +9913,7 @@
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A231">
+      <c r="A231" s="4">
         <v>226</v>
       </c>
       <c r="B231" t="s">
@@ -9941,7 +9948,7 @@
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232">
+      <c r="A232" s="4">
         <v>227</v>
       </c>
       <c r="B232" t="s">
@@ -9976,7 +9983,7 @@
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A233">
+      <c r="A233" s="4">
         <v>228</v>
       </c>
       <c r="B233" t="s">
@@ -10011,7 +10018,7 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234">
+      <c r="A234" s="4">
         <v>229</v>
       </c>
       <c r="B234" t="s">
@@ -10046,7 +10053,7 @@
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235">
+      <c r="A235" s="4">
         <v>230</v>
       </c>
       <c r="B235" t="s">
@@ -10081,7 +10088,7 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236">
+      <c r="A236" s="4">
         <v>231</v>
       </c>
       <c r="B236" t="s">
@@ -10116,7 +10123,7 @@
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237">
+      <c r="A237" s="4">
         <v>232</v>
       </c>
       <c r="B237" t="s">
@@ -10151,7 +10158,7 @@
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238">
+      <c r="A238" s="4">
         <v>233</v>
       </c>
       <c r="B238" t="s">
@@ -10186,7 +10193,7 @@
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239">
+      <c r="A239" s="4">
         <v>234</v>
       </c>
       <c r="B239" t="s">
@@ -10221,7 +10228,7 @@
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A240">
+      <c r="A240" s="4">
         <v>235</v>
       </c>
       <c r="B240" t="s">
@@ -10256,7 +10263,7 @@
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A241">
+      <c r="A241" s="4">
         <v>236</v>
       </c>
       <c r="B241" t="s">
@@ -10291,7 +10298,7 @@
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A242">
+      <c r="A242" s="4">
         <v>237</v>
       </c>
       <c r="B242" t="s">
@@ -10326,7 +10333,7 @@
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A243">
+      <c r="A243" s="4">
         <v>238</v>
       </c>
       <c r="B243" t="s">
@@ -10361,7 +10368,7 @@
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244">
+      <c r="A244" s="4">
         <v>239</v>
       </c>
       <c r="B244" t="s">
@@ -10396,7 +10403,7 @@
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245">
+      <c r="A245" s="4">
         <v>240</v>
       </c>
       <c r="B245" t="s">
@@ -10431,7 +10438,7 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A246">
+      <c r="A246" s="4">
         <v>241</v>
       </c>
       <c r="B246" t="s">
@@ -10466,7 +10473,7 @@
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A247">
+      <c r="A247" s="4">
         <v>242</v>
       </c>
       <c r="B247" t="s">
@@ -10501,7 +10508,7 @@
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A248">
+      <c r="A248" s="4">
         <v>243</v>
       </c>
       <c r="B248" t="s">
@@ -10536,7 +10543,7 @@
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249">
+      <c r="A249" s="4">
         <v>244</v>
       </c>
       <c r="B249" t="s">
@@ -10571,7 +10578,7 @@
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250">
+      <c r="A250" s="4">
         <v>245</v>
       </c>
       <c r="B250" t="s">
@@ -10606,7 +10613,7 @@
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A251">
+      <c r="A251" s="4">
         <v>246</v>
       </c>
       <c r="B251" t="s">
@@ -10641,7 +10648,7 @@
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A252">
+      <c r="A252" s="4">
         <v>247</v>
       </c>
       <c r="B252" t="s">
@@ -10676,7 +10683,7 @@
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A253">
+      <c r="A253" s="4">
         <v>248</v>
       </c>
       <c r="B253" t="s">
@@ -10711,7 +10718,7 @@
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A254">
+      <c r="A254" s="4">
         <v>249</v>
       </c>
       <c r="B254" t="s">
@@ -10746,7 +10753,7 @@
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255">
+      <c r="A255" s="4">
         <v>250</v>
       </c>
       <c r="B255" t="s">
@@ -10781,7 +10788,7 @@
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A256">
+      <c r="A256" s="4">
         <v>251</v>
       </c>
       <c r="B256" t="s">
@@ -10816,7 +10823,7 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257">
+      <c r="A257" s="4">
         <v>252</v>
       </c>
       <c r="B257" t="s">
@@ -10851,7 +10858,7 @@
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258">
+      <c r="A258" s="4">
         <v>253</v>
       </c>
       <c r="B258" t="s">
@@ -10886,7 +10893,7 @@
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A259">
+      <c r="A259" s="4">
         <v>254</v>
       </c>
       <c r="B259" t="s">
@@ -10921,7 +10928,7 @@
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A260">
+      <c r="A260" s="4">
         <v>255</v>
       </c>
       <c r="B260" t="s">
@@ -10956,7 +10963,7 @@
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A261">
+      <c r="A261" s="4">
         <v>256</v>
       </c>
       <c r="B261" t="s">
@@ -10991,7 +10998,7 @@
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A262">
+      <c r="A262" s="4">
         <v>257</v>
       </c>
       <c r="B262" t="s">
@@ -11026,7 +11033,7 @@
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A263">
+      <c r="A263" s="4">
         <v>258</v>
       </c>
       <c r="B263" t="s">
@@ -11061,7 +11068,7 @@
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A264">
+      <c r="A264" s="4">
         <v>259</v>
       </c>
       <c r="B264" t="s">
@@ -11096,7 +11103,7 @@
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265">
+      <c r="A265" s="4">
         <v>260</v>
       </c>
       <c r="B265" t="s">
